--- a/datasets/geo-coord.xlsx
+++ b/datasets/geo-coord.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sandokhan/Desktop/dataviz/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C02D6038-D3AC-2545-8A02-175091CD0F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBBABDB-0DA4-D947-BE70-F77A801F9F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32620" yWindow="2540" windowWidth="22320" windowHeight="15940" xr2:uid="{72FD861B-8CB7-8B47-8BC5-B0BFE3E48A92}"/>
+    <workbookView xWindow="6340" yWindow="1940" windowWidth="22320" windowHeight="15940" xr2:uid="{72FD861B-8CB7-8B47-8BC5-B0BFE3E48A92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$28</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -170,46 +173,46 @@
     <t>Catar</t>
   </si>
   <si>
-    <t>ptbr</t>
-  </si>
-  <si>
-    <t>ptang</t>
-  </si>
-  <si>
-    <t>ptarab</t>
-  </si>
-  <si>
-    <t>ptarg</t>
-  </si>
-  <si>
-    <t>ptarp</t>
-  </si>
-  <si>
-    <t>ptaz</t>
-  </si>
-  <si>
-    <t>ptes</t>
-  </si>
-  <si>
-    <t>ptnigp</t>
-  </si>
-  <si>
-    <t>ptnigg</t>
-  </si>
-  <si>
-    <t>ptuk</t>
-  </si>
-  <si>
-    <t>ptrug</t>
-  </si>
-  <si>
-    <t>ptrup</t>
-  </si>
-  <si>
-    <t>ptusa</t>
-  </si>
-  <si>
-    <t>ptcat</t>
+    <t>dfang_p</t>
+  </si>
+  <si>
+    <t>dfas_p</t>
+  </si>
+  <si>
+    <t>dfar_p_petr</t>
+  </si>
+  <si>
+    <t>dfaz_p</t>
+  </si>
+  <si>
+    <t>dfbp</t>
+  </si>
+  <si>
+    <t>dfe_p</t>
+  </si>
+  <si>
+    <t>dfn_p_petr</t>
+  </si>
+  <si>
+    <t>dfru_p</t>
+  </si>
+  <si>
+    <t>dfr_p_petr</t>
+  </si>
+  <si>
+    <t>dfusa_p</t>
+  </si>
+  <si>
+    <t>dfqat_p</t>
+  </si>
+  <si>
+    <t>dfn_p_gas</t>
+  </si>
+  <si>
+    <t>dfr_p_gas</t>
+  </si>
+  <si>
+    <t>dfar_p_gas</t>
   </si>
 </sst>
 </file>
@@ -219,17 +222,10 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -262,14 +258,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7933AFF-6EC7-7C4C-8F7F-B57777523F77}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -610,262 +602,262 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2">
-        <v>-9.1333300000000008</v>
+        <v>-12</v>
       </c>
       <c r="D2" s="2">
-        <v>38.716670000000001</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C3" s="2">
-        <v>-47.55</v>
-      </c>
-      <c r="D3" s="3">
-        <v>-15.47</v>
+        <v>-12</v>
+      </c>
+      <c r="D3" s="2">
+        <v>-12</v>
       </c>
       <c r="E3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C4" s="2">
-        <v>-47.55</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2">
-        <v>38.716670000000001</v>
+        <v>-12</v>
       </c>
       <c r="E4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4">
-        <v>-9.5</v>
-      </c>
-      <c r="D5" s="4">
-        <v>38.716700000000003</v>
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-6</v>
+      </c>
+      <c r="D5" s="2">
+        <v>37.5</v>
       </c>
       <c r="E5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4">
-        <v>-9.5</v>
-      </c>
-      <c r="D6" s="4">
-        <v>-8.5</v>
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2">
+        <v>45</v>
+      </c>
+      <c r="D6" s="2">
+        <v>37.5</v>
       </c>
       <c r="E6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4">
-        <v>13.15</v>
-      </c>
-      <c r="D7" s="4">
-        <v>-8.5</v>
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2">
+        <v>45</v>
+      </c>
+      <c r="D7" s="2">
+        <v>23</v>
       </c>
       <c r="E7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="2">
-        <v>-9.1333300000000008</v>
+        <v>-5.25</v>
       </c>
       <c r="D8" s="2">
-        <v>38.716670000000001</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C9" s="2">
-        <v>46.721850000000003</v>
+        <v>-5.25</v>
       </c>
       <c r="D9" s="2">
-        <v>38.700000000000003</v>
+        <v>27.5</v>
       </c>
       <c r="E9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C10" s="2">
-        <v>46.721850000000003</v>
+        <v>3</v>
       </c>
       <c r="D10" s="2">
-        <v>24.687729999999998</v>
+        <v>27.5</v>
       </c>
       <c r="E10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="2">
-        <v>-3.5</v>
+        <v>-6</v>
       </c>
       <c r="D11" s="2">
-        <v>36</v>
+        <v>40.5</v>
       </c>
       <c r="E11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C12" s="2">
-        <v>-3.5</v>
+        <v>47.5</v>
       </c>
       <c r="D12" s="2">
-        <v>29.5</v>
+        <v>40.5</v>
       </c>
       <c r="E12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C13" s="2">
-        <v>3</v>
+        <v>47.5</v>
       </c>
       <c r="D13" s="2">
-        <v>29.5</v>
+        <v>40.5</v>
       </c>
       <c r="E13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="2">
-        <v>-5.25</v>
+        <v>-10</v>
       </c>
       <c r="D14" s="2">
-        <v>36</v>
+        <v>38.716700000000003</v>
       </c>
       <c r="E14" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C15" s="2">
-        <v>-5.25</v>
+        <v>-47.55</v>
       </c>
       <c r="D15" s="2">
-        <v>27.5</v>
+        <v>-2.5</v>
       </c>
       <c r="E15" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C16" s="2">
-        <v>3</v>
+        <v>-47.55</v>
       </c>
       <c r="D16" s="2">
-        <v>27.5</v>
+        <v>38.716700000000003</v>
       </c>
       <c r="E16" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -875,415 +867,415 @@
         <v>-6</v>
       </c>
       <c r="D17" s="2">
-        <v>40.5</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="3">
-        <v>47.5</v>
+      <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="2">
+        <v>-3.45</v>
       </c>
       <c r="D18" s="2">
-        <v>40.5</v>
+        <v>42</v>
       </c>
       <c r="E18" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="3">
-        <v>47.5</v>
+      <c r="A19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2">
+        <v>-10.5</v>
       </c>
       <c r="D19" s="2">
-        <v>40.5</v>
+        <v>36</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>2</v>
+      <c r="A20" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C20" s="2">
-        <v>-6</v>
-      </c>
-      <c r="D20" s="3">
-        <v>42</v>
+        <v>-10.5</v>
+      </c>
+      <c r="D20" s="2">
+        <v>6.5</v>
       </c>
       <c r="E20" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="3">
-        <v>-3.45</v>
-      </c>
-      <c r="D21" s="3">
-        <v>42</v>
+      <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="2">
+        <v>7.32</v>
+      </c>
+      <c r="D21" s="2">
+        <v>6.5</v>
       </c>
       <c r="E21" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="2">
-        <v>-10.5</v>
+        <v>-7.5</v>
       </c>
       <c r="D22" s="2">
-        <v>36</v>
+        <v>42.5</v>
       </c>
       <c r="E22" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" t="s">
-        <v>30</v>
+      <c r="A23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C23" s="2">
-        <v>-10.5</v>
-      </c>
-      <c r="D23" s="3">
-        <v>6.5</v>
+        <v>-7.5</v>
+      </c>
+      <c r="D23" s="2">
+        <v>53</v>
       </c>
       <c r="E23" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="3">
-        <v>7.32</v>
-      </c>
-      <c r="D24" s="3">
-        <v>6.5</v>
+      <c r="A24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D24" s="2">
+        <v>53</v>
       </c>
       <c r="E24" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C25" s="2">
-        <v>-8</v>
+        <v>-9.5</v>
       </c>
       <c r="D25" s="2">
-        <v>36</v>
+        <v>42.5</v>
       </c>
       <c r="E25" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" t="s">
-        <v>30</v>
+      <c r="A26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C26" s="2">
-        <v>-8</v>
-      </c>
-      <c r="D26" s="3">
-        <v>9.0500000000000007</v>
+        <v>-9.5</v>
+      </c>
+      <c r="D26" s="2">
+        <v>55.45</v>
       </c>
       <c r="E26" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="3">
-        <v>7.32</v>
-      </c>
-      <c r="D27" s="3">
-        <v>9.0500000000000007</v>
+      <c r="A27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="2">
+        <v>37.35</v>
+      </c>
+      <c r="D27" s="2">
+        <v>55.45</v>
       </c>
       <c r="E27" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="2">
-        <v>-7.5</v>
+        <v>-10</v>
       </c>
       <c r="D28" s="2">
-        <v>42.5</v>
+        <v>40</v>
       </c>
       <c r="E28" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" t="s">
-        <v>34</v>
+      <c r="A29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C29" s="2">
-        <v>-7.5</v>
-      </c>
-      <c r="D29" s="3">
-        <v>53</v>
+        <v>-77</v>
+      </c>
+      <c r="D29" s="2">
+        <v>40</v>
       </c>
       <c r="E29" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="3">
-        <v>-1</v>
-      </c>
-      <c r="D30" s="3">
-        <v>53</v>
+      <c r="A30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="2">
+        <v>-6</v>
+      </c>
+      <c r="D30" s="2">
+        <v>39</v>
       </c>
       <c r="E30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>2</v>
+      <c r="A31" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C31" s="2">
-        <v>-8.25</v>
+        <v>51.2</v>
       </c>
       <c r="D31" s="2">
-        <v>42.5</v>
+        <v>39</v>
       </c>
       <c r="E31" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" t="s">
-        <v>38</v>
+      <c r="A32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C32" s="2">
-        <v>-8.25</v>
-      </c>
-      <c r="D32" s="3">
-        <v>54</v>
+        <v>51.2</v>
+      </c>
+      <c r="D32" s="2">
+        <v>25.3</v>
       </c>
       <c r="E32" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="3">
-        <v>37.35</v>
-      </c>
-      <c r="D33" s="3">
-        <v>54</v>
+      <c r="A33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="2">
+        <v>-8</v>
+      </c>
+      <c r="D33" s="2">
+        <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>2</v>
+      <c r="A34" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C34" s="2">
-        <v>-9.5</v>
+        <v>-8</v>
       </c>
       <c r="D34" s="2">
-        <v>42.5</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="E34" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" t="s">
-        <v>38</v>
+      <c r="A35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C35" s="2">
-        <v>-9.5</v>
-      </c>
-      <c r="D35" s="3">
-        <v>55.45</v>
+        <v>7.32</v>
+      </c>
+      <c r="D35" s="2">
+        <v>9.0500000000000007</v>
       </c>
       <c r="E35" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="3">
-        <v>37.35</v>
-      </c>
-      <c r="D36" s="3">
-        <v>55.45</v>
+      <c r="A36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="2">
+        <v>-8.25</v>
+      </c>
+      <c r="D36" s="2">
+        <v>42.5</v>
       </c>
       <c r="E36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>2</v>
+      <c r="A37" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C37" s="2">
-        <v>-10</v>
+        <v>-8.25</v>
       </c>
       <c r="D37" s="2">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E37" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" t="s">
-        <v>42</v>
+      <c r="A38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C38" s="2">
-        <v>-77</v>
+        <v>37.35</v>
       </c>
       <c r="D38" s="2">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E38" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="A39" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C39" s="2">
-        <v>-6</v>
+        <v>-3.5</v>
       </c>
       <c r="D39" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E39" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>23</v>
-      </c>
-      <c r="B40" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" s="3">
-        <v>51.2</v>
+      <c r="A40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="2">
+        <v>-3.5</v>
       </c>
       <c r="D40" s="2">
-        <v>39</v>
+        <v>29.5</v>
       </c>
       <c r="E40" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="3">
-        <v>51.2</v>
+      <c r="A41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="2">
+        <v>3</v>
       </c>
       <c r="D41" s="2">
-        <v>25.3</v>
+        <v>29.5</v>
       </c>
       <c r="E41" t="s">
         <v>57</v>
